--- a/django_feedback/media/feedback.xlsx
+++ b/django_feedback/media/feedback.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
   <si>
     <t>Manager_name</t>
   </si>
@@ -157,6 +157,57 @@
   </si>
   <si>
     <t>ddsdsdsdsdsd</t>
+  </si>
+  <si>
+    <t>2020-01-11 20:57:55</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>VaniNaik</t>
+  </si>
+  <si>
+    <t>2020-01-11 06:03:22</t>
+  </si>
+  <si>
+    <t>2020-01-11 06:41:42</t>
+  </si>
+  <si>
+    <t>ccxcxcxc</t>
+  </si>
+  <si>
+    <t>2020-01-11 07:17:47</t>
+  </si>
+  <si>
+    <t>dsdsdsdsd</t>
+  </si>
+  <si>
+    <t>2020-01-11 08:01:59</t>
+  </si>
+  <si>
+    <t>kkkkkkkkkkkkkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>2020-01-11 09:52:24</t>
+  </si>
+  <si>
+    <t>jjjjjj</t>
+  </si>
+  <si>
+    <t>2020-01-11 11:20:41</t>
+  </si>
+  <si>
+    <t>2020-01-11 11:26:36</t>
+  </si>
+  <si>
+    <t>sadsdsd</t>
+  </si>
+  <si>
+    <t>2020-01-11 12:37:44</t>
+  </si>
+  <si>
+    <t>fsffsdsdsd</t>
   </si>
 </sst>
 </file>
@@ -488,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -769,6 +820,105 @@
         <v>45</v>
       </c>
     </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
